--- a/data/pca/factorExposure/factorExposure_2013-07-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-07-02.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.002085764528678467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001381607833561779</v>
+      </c>
+      <c r="C2">
+        <v>-0.03184265930946848</v>
+      </c>
+      <c r="D2">
+        <v>0.00508497483870843</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.002819149040846841</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006274104315648564</v>
+      </c>
+      <c r="C4">
+        <v>-0.08343085865430253</v>
+      </c>
+      <c r="D4">
+        <v>0.0804676759801476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.000316308221768947</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01362779691844852</v>
+      </c>
+      <c r="C6">
+        <v>-0.105528853662724</v>
+      </c>
+      <c r="D6">
+        <v>0.04024860465888117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001295507714917094</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004971653245604096</v>
+      </c>
+      <c r="C7">
+        <v>-0.05155385038060634</v>
+      </c>
+      <c r="D7">
+        <v>0.03903756756577247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.002861633830078257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.006172814473839354</v>
+      </c>
+      <c r="C8">
+        <v>-0.03861817631845684</v>
+      </c>
+      <c r="D8">
+        <v>0.03743333841730796</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.005862103249974665</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004224560925345469</v>
+      </c>
+      <c r="C9">
+        <v>-0.06754747926963862</v>
+      </c>
+      <c r="D9">
+        <v>0.07028707927110185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004560600597094316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.006085978666888037</v>
+      </c>
+      <c r="C10">
+        <v>-0.08871384455322273</v>
+      </c>
+      <c r="D10">
+        <v>-0.217313304441542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.005932003897354286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005147237434535945</v>
+      </c>
+      <c r="C11">
+        <v>-0.07840670947824806</v>
+      </c>
+      <c r="D11">
+        <v>0.06455331065257715</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.001002287108548238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003961818999154304</v>
+      </c>
+      <c r="C12">
+        <v>-0.06235155327860904</v>
+      </c>
+      <c r="D12">
+        <v>0.0466052155559781</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.002720372627447608</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.00844852085122324</v>
+      </c>
+      <c r="C13">
+        <v>-0.06829927485723333</v>
+      </c>
+      <c r="D13">
+        <v>0.07688558335946802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.003847832048621315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.002035686092480547</v>
+      </c>
+      <c r="C14">
+        <v>-0.04737423692771602</v>
+      </c>
+      <c r="D14">
+        <v>0.01495339634255293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.003206510437141371</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.00595388973684928</v>
+      </c>
+      <c r="C15">
+        <v>-0.03728667884382746</v>
+      </c>
+      <c r="D15">
+        <v>0.04454550240583658</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.003648839918670234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005214501398808217</v>
+      </c>
+      <c r="C16">
+        <v>-0.06393003702313571</v>
+      </c>
+      <c r="D16">
+        <v>0.05025464513920159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.001409225108875754</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009410795204846601</v>
+      </c>
+      <c r="C20">
+        <v>-0.06499980866542765</v>
+      </c>
+      <c r="D20">
+        <v>0.05711323539627249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.003028453633195825</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009689165438746695</v>
+      </c>
+      <c r="C21">
+        <v>-0.02634610326610662</v>
+      </c>
+      <c r="D21">
+        <v>0.03805869633424513</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01649277907113325</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.007554325114982957</v>
+      </c>
+      <c r="C22">
+        <v>-0.08504919919393034</v>
+      </c>
+      <c r="D22">
+        <v>0.1038552965287759</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01675350394408951</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.007309054878077567</v>
+      </c>
+      <c r="C23">
+        <v>-0.08763587360749318</v>
+      </c>
+      <c r="D23">
+        <v>0.1010326003185827</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.00455677573367694</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004754798039150123</v>
+      </c>
+      <c r="C24">
+        <v>-0.0716319693134224</v>
+      </c>
+      <c r="D24">
+        <v>0.0596651816175229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.005641872941786386</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003098086647092812</v>
+      </c>
+      <c r="C25">
+        <v>-0.07647196311676277</v>
+      </c>
+      <c r="D25">
+        <v>0.0631322377682388</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.007106876846129121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003745241872004818</v>
+      </c>
+      <c r="C26">
+        <v>-0.0432550481555033</v>
+      </c>
+      <c r="D26">
+        <v>0.01830330416821876</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.00529344004306065</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0003403914979753588</v>
+      </c>
+      <c r="C28">
+        <v>-0.1375210488129381</v>
+      </c>
+      <c r="D28">
+        <v>-0.3014229747835085</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001637953137173994</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003517414549845655</v>
+      </c>
+      <c r="C29">
+        <v>-0.05019136323867544</v>
+      </c>
+      <c r="D29">
+        <v>0.02099738138020272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.005654749021715416</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009436375779765424</v>
+      </c>
+      <c r="C30">
+        <v>-0.1327142361735735</v>
+      </c>
+      <c r="D30">
+        <v>0.1121121249797023</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001551962250686613</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006192441432562247</v>
+      </c>
+      <c r="C31">
+        <v>-0.04674437891188861</v>
+      </c>
+      <c r="D31">
+        <v>0.03577290608410832</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.000423633493480456</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003545970762020553</v>
+      </c>
+      <c r="C32">
+        <v>-0.04079496703045972</v>
+      </c>
+      <c r="D32">
+        <v>0.01678972623582885</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.004569298918978519</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008116446449605247</v>
+      </c>
+      <c r="C33">
+        <v>-0.08129753010213958</v>
+      </c>
+      <c r="D33">
+        <v>0.07659048996086054</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.005982685202415552</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003893338736454053</v>
+      </c>
+      <c r="C34">
+        <v>-0.05604163747712982</v>
+      </c>
+      <c r="D34">
+        <v>0.04400396249805734</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.00429303913429658</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004884455723495589</v>
+      </c>
+      <c r="C35">
+        <v>-0.03869465198835802</v>
+      </c>
+      <c r="D35">
+        <v>0.01699967717871507</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.005524267389449115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001268068817824719</v>
+      </c>
+      <c r="C36">
+        <v>-0.02724079881548982</v>
+      </c>
+      <c r="D36">
+        <v>0.01646695133830468</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002245797961356264</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009180134234586079</v>
+      </c>
+      <c r="C38">
+        <v>-0.03551863831336249</v>
+      </c>
+      <c r="D38">
+        <v>0.03006651374435922</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01565290032471563</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001046759791263082</v>
+      </c>
+      <c r="C39">
+        <v>-0.1110165604554787</v>
+      </c>
+      <c r="D39">
+        <v>0.0858514372596465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.008419023422012969</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002709660435335886</v>
+      </c>
+      <c r="C40">
+        <v>-0.0843336298974315</v>
+      </c>
+      <c r="D40">
+        <v>0.03560233625754682</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>5.147220157053278e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007613427659398131</v>
+      </c>
+      <c r="C41">
+        <v>-0.04144394352964961</v>
+      </c>
+      <c r="D41">
+        <v>0.03458664675910923</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.00212243325453301</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.002975743946091196</v>
+      </c>
+      <c r="C43">
+        <v>-0.05188357236302669</v>
+      </c>
+      <c r="D43">
+        <v>0.02735649449091875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.005258552767634927</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003614887734456778</v>
+      </c>
+      <c r="C44">
+        <v>-0.1051360292675567</v>
+      </c>
+      <c r="D44">
+        <v>0.08245475254258236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.00240207409126891</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002605999232738119</v>
+      </c>
+      <c r="C46">
+        <v>-0.03363348491731544</v>
+      </c>
+      <c r="D46">
+        <v>0.0337074473627741</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.002676202251163889</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002852738824183069</v>
+      </c>
+      <c r="C47">
+        <v>-0.04079060626641352</v>
+      </c>
+      <c r="D47">
+        <v>0.02691962437449913</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003664676540333994</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006563194551707069</v>
+      </c>
+      <c r="C48">
+        <v>-0.03233614182302628</v>
+      </c>
+      <c r="D48">
+        <v>0.02246309073885054</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01633105000782045</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01417486289818184</v>
+      </c>
+      <c r="C49">
+        <v>-0.1646772702231123</v>
+      </c>
+      <c r="D49">
+        <v>0.04382601183568683</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.0003308359628921823</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.004025846592656726</v>
+      </c>
+      <c r="C50">
+        <v>-0.04300621743196133</v>
+      </c>
+      <c r="D50">
+        <v>0.03804129264066969</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.002621425636855682</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004135181086474778</v>
+      </c>
+      <c r="C51">
+        <v>-0.02018498144805403</v>
+      </c>
+      <c r="D51">
+        <v>0.0349456561467137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0001230429274116378</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02022291310665993</v>
+      </c>
+      <c r="C53">
+        <v>-0.1627392522853529</v>
+      </c>
+      <c r="D53">
+        <v>0.05925141542831267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001367710838914397</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008711444782237277</v>
+      </c>
+      <c r="C54">
+        <v>-0.05407138109897195</v>
+      </c>
+      <c r="D54">
+        <v>0.04206981706312149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.005984522601006318</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009652684818801563</v>
+      </c>
+      <c r="C55">
+        <v>-0.1034534517446969</v>
+      </c>
+      <c r="D55">
+        <v>0.0562647869155825</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.001411219791375321</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01900880890348926</v>
+      </c>
+      <c r="C56">
+        <v>-0.1671851548255373</v>
+      </c>
+      <c r="D56">
+        <v>0.06183112487354148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.009010985027441602</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01971209396595898</v>
+      </c>
+      <c r="C58">
+        <v>-0.099833813533366</v>
+      </c>
+      <c r="D58">
+        <v>0.0817146189448183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.009176661870098201</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.008945397217409903</v>
+      </c>
+      <c r="C59">
+        <v>-0.1773554576837226</v>
+      </c>
+      <c r="D59">
+        <v>-0.2683150174307326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.008850323077576988</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02309987244665283</v>
+      </c>
+      <c r="C60">
+        <v>-0.2210840661370606</v>
+      </c>
+      <c r="D60">
+        <v>0.03400760490470454</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01798906572805547</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001913290005966684</v>
+      </c>
+      <c r="C61">
+        <v>-0.09313059324677414</v>
+      </c>
+      <c r="D61">
+        <v>0.06557360288872623</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1890002903460443</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1448739472615646</v>
+      </c>
+      <c r="C62">
+        <v>-0.06784418585245723</v>
+      </c>
+      <c r="D62">
+        <v>0.05299686341370561</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.003025180362105093</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006673123297253233</v>
+      </c>
+      <c r="C63">
+        <v>-0.06041923757476053</v>
+      </c>
+      <c r="D63">
+        <v>0.02084510773143481</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.006358828461308753</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01574020344468335</v>
+      </c>
+      <c r="C64">
+        <v>-0.0965705133703345</v>
+      </c>
+      <c r="D64">
+        <v>0.07082256888891698</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.0005730265923941497</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01734789172040088</v>
+      </c>
+      <c r="C65">
+        <v>-0.110129407307589</v>
+      </c>
+      <c r="D65">
+        <v>0.03901270201988833</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.01226202141007671</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01239149297650293</v>
+      </c>
+      <c r="C66">
+        <v>-0.1471881351455454</v>
+      </c>
+      <c r="D66">
+        <v>0.1250658363038244</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.001799848580286185</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01515865600132668</v>
+      </c>
+      <c r="C67">
+        <v>-0.06408211471142966</v>
+      </c>
+      <c r="D67">
+        <v>0.04251186450916256</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.009106960485133165</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001655347433764007</v>
+      </c>
+      <c r="C68">
+        <v>-0.1209215824100634</v>
+      </c>
+      <c r="D68">
+        <v>-0.2658652293284772</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.003400623400277511</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005215098224241944</v>
+      </c>
+      <c r="C69">
+        <v>-0.04566967292587797</v>
+      </c>
+      <c r="D69">
+        <v>0.04420351165951461</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.00126664649656144</v>
+      </c>
+      <c r="C70">
+        <v>-0.001633868197155468</v>
+      </c>
+      <c r="D70">
+        <v>0.001335734062402356</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.00430114359793946</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006315354451107586</v>
+      </c>
+      <c r="C71">
+        <v>-0.1247759529448567</v>
+      </c>
+      <c r="D71">
+        <v>-0.2800171011436102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.008584652509370351</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01543137960918021</v>
+      </c>
+      <c r="C72">
+        <v>-0.1469141129381061</v>
+      </c>
+      <c r="D72">
+        <v>0.03572017420466155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01425919898087346</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03125395234514485</v>
+      </c>
+      <c r="C73">
+        <v>-0.2834625162524957</v>
+      </c>
+      <c r="D73">
+        <v>0.05498498832764863</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.005856093751755156</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001948808522880653</v>
+      </c>
+      <c r="C74">
+        <v>-0.101522082460244</v>
+      </c>
+      <c r="D74">
+        <v>0.04718456507340468</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.006679345324600336</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01049045943205628</v>
+      </c>
+      <c r="C75">
+        <v>-0.130538171095325</v>
+      </c>
+      <c r="D75">
+        <v>0.04645934431008733</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.01051448688823896</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02118538469531685</v>
+      </c>
+      <c r="C76">
+        <v>-0.1411203974303902</v>
+      </c>
+      <c r="D76">
+        <v>0.0760602294801079</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.008663811632837979</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02235206832511406</v>
+      </c>
+      <c r="C77">
+        <v>-0.1177778996433691</v>
+      </c>
+      <c r="D77">
+        <v>0.1198943763314237</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0007497979057285706</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01473592884017352</v>
+      </c>
+      <c r="C78">
+        <v>-0.08970192013580046</v>
+      </c>
+      <c r="D78">
+        <v>0.0683292268118985</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02633762742523358</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03670134655099713</v>
+      </c>
+      <c r="C79">
+        <v>-0.1526603258699692</v>
+      </c>
+      <c r="D79">
+        <v>0.04353797474800977</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.003226125157388398</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01083808943370537</v>
+      </c>
+      <c r="C80">
+        <v>-0.04386010290468748</v>
+      </c>
+      <c r="D80">
+        <v>0.02837928870947315</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>8.746902523871871e-05</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.0144762149439207</v>
+      </c>
+      <c r="C81">
+        <v>-0.1180270910396845</v>
+      </c>
+      <c r="D81">
+        <v>0.0647292199950041</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.00625603034366758</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01875155007961984</v>
+      </c>
+      <c r="C82">
+        <v>-0.1382486369175162</v>
+      </c>
+      <c r="D82">
+        <v>0.05432826705366329</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008566200707823407</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009685723632358974</v>
+      </c>
+      <c r="C83">
+        <v>-0.05190341215901904</v>
+      </c>
+      <c r="D83">
+        <v>0.04790867035231484</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01354159766097061</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01231458195294253</v>
+      </c>
+      <c r="C84">
+        <v>-0.03086875848763953</v>
+      </c>
+      <c r="D84">
+        <v>-0.0005042838413721809</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.0163402106682664</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02846383088537659</v>
+      </c>
+      <c r="C85">
+        <v>-0.1272347693547278</v>
+      </c>
+      <c r="D85">
+        <v>0.06001486124657147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.003697309725947776</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.00479554586563201</v>
+      </c>
+      <c r="C86">
+        <v>-0.04758180414563119</v>
+      </c>
+      <c r="D86">
+        <v>0.02160928741444597</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.00817099532544642</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01025195074126643</v>
+      </c>
+      <c r="C87">
+        <v>-0.1233412108219111</v>
+      </c>
+      <c r="D87">
+        <v>0.08253309230951519</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01477295651412629</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002997168902778815</v>
+      </c>
+      <c r="C88">
+        <v>-0.07302013993068816</v>
+      </c>
+      <c r="D88">
+        <v>0.01735203686322527</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01536116493855502</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001752203244331291</v>
+      </c>
+      <c r="C89">
+        <v>-0.175115461897688</v>
+      </c>
+      <c r="D89">
+        <v>-0.3292151064450769</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.002369496111632935</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.00774499973628474</v>
+      </c>
+      <c r="C90">
+        <v>-0.1575824905651221</v>
+      </c>
+      <c r="D90">
+        <v>-0.3156666793625741</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0005139268562162374</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.00990764150113765</v>
+      </c>
+      <c r="C91">
+        <v>-0.101852537158645</v>
+      </c>
+      <c r="D91">
+        <v>0.02304381654060857</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.01827554558388461</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001095724412042862</v>
+      </c>
+      <c r="C92">
+        <v>-0.162992263770553</v>
+      </c>
+      <c r="D92">
+        <v>-0.3146960510913381</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.001840375129311384</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005259705875469072</v>
+      </c>
+      <c r="C93">
+        <v>-0.1392230391983282</v>
+      </c>
+      <c r="D93">
+        <v>-0.307777004882496</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.00110328974481</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02188437164095642</v>
+      </c>
+      <c r="C94">
+        <v>-0.154780128974171</v>
+      </c>
+      <c r="D94">
+        <v>0.03815648720682462</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.00692152737636287</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01673537145729738</v>
+      </c>
+      <c r="C95">
+        <v>-0.1201368221589418</v>
+      </c>
+      <c r="D95">
+        <v>0.06913766367121484</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.004604886903214088</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03259478111531807</v>
+      </c>
+      <c r="C97">
+        <v>-0.1657705538696205</v>
+      </c>
+      <c r="D97">
+        <v>0.0506452434771912</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01002770063246124</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.0360427649508887</v>
+      </c>
+      <c r="C98">
+        <v>-0.2575492219658835</v>
+      </c>
+      <c r="D98">
+        <v>0.05235844741651288</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9792072904355132</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9825448190477478</v>
+      </c>
+      <c r="C99">
+        <v>0.1075556039281642</v>
+      </c>
+      <c r="D99">
+        <v>-0.03712498568844821</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.00159052743459217</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003561407520923443</v>
+      </c>
+      <c r="C101">
+        <v>-0.05027637166551189</v>
+      </c>
+      <c r="D101">
+        <v>0.02103803776560406</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
